--- a/Данные поставщика дополненные.xlsx
+++ b/Данные поставщика дополненные.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\Тестовое по Python в компанию ООО Теропром\Обработка данных в таблицах\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD899B6-8438-48E8-8C72-9644FF09AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5526A0-816B-4165-8037-0565A9365FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8457,7 +8457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8465,7 +8465,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8777,17 +8776,18 @@
   <dimension ref="A1:CRQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="96.85546875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2513" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2513" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8797,7 +8797,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2793</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -16338,7 +16338,7 @@
       <c r="C2" t="s">
         <v>2513</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>100</v>
       </c>
       <c r="E2">
@@ -16463,7 +16463,7 @@
       <c r="C3" t="s">
         <v>2537</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>75</v>
       </c>
       <c r="E3">
@@ -16591,7 +16591,7 @@
       <c r="C4" t="s">
         <v>2537</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>75</v>
       </c>
       <c r="E4">
@@ -16719,7 +16719,7 @@
       <c r="C5" t="s">
         <v>2537</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>75</v>
       </c>
       <c r="E5">
@@ -16862,7 +16862,7 @@
       <c r="C6" t="s">
         <v>2537</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>75</v>
       </c>
       <c r="E6">
@@ -17005,7 +17005,7 @@
       <c r="C7" t="s">
         <v>2604</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>100</v>
       </c>
       <c r="E7">
@@ -17142,7 +17142,7 @@
       <c r="C8" t="s">
         <v>2604</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>100</v>
       </c>
       <c r="E8">
@@ -17273,7 +17273,7 @@
       <c r="C9" t="s">
         <v>2604</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>100</v>
       </c>
       <c r="E9">
@@ -17404,7 +17404,7 @@
       <c r="C10" t="s">
         <v>2604</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>100</v>
       </c>
       <c r="E10">
@@ -17529,7 +17529,7 @@
       <c r="C11" t="s">
         <v>2676</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>86</v>
       </c>
       <c r="E11">
@@ -17672,7 +17672,7 @@
       <c r="C12" t="s">
         <v>2676</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>86</v>
       </c>
       <c r="E12">
@@ -17812,7 +17812,7 @@
       <c r="C13" t="s">
         <v>2676</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>86</v>
       </c>
       <c r="E13">
@@ -17949,7 +17949,7 @@
       <c r="C14" t="s">
         <v>2676</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>86</v>
       </c>
       <c r="E14">
@@ -18086,7 +18086,7 @@
       <c r="C15" t="s">
         <v>2676</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>86</v>
       </c>
       <c r="E15">
@@ -18223,7 +18223,7 @@
       <c r="C16" t="s">
         <v>2676</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>86</v>
       </c>
       <c r="E16">

--- a/Данные поставщика дополненные.xlsx
+++ b/Данные поставщика дополненные.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\Тестовое по Python в компанию ООО Теропром\Обработка данных в таблицах\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5526A0-816B-4165-8037-0565A9365FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D9B2C-2338-4FCE-833C-83F120869A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="2795">
   <si>
     <t>Код артикула</t>
   </si>
@@ -8402,6 +8402,9 @@
   </si>
   <si>
     <t>Точность распознавания (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -8773,10 +8776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CRQ16"/>
+  <dimension ref="A1:CRQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18335,6 +18338,11 @@
         <v>2527</v>
       </c>
     </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>2794</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
